--- a/data/trans_dic/P16A05-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Clase-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1665,7 +1665,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A05-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01800206328812353</v>
+        <v>0.01742116524130433</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01747433860488313</v>
+        <v>0.01668912928509994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02534290099145606</v>
+        <v>0.02425353900121181</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02216241122452119</v>
+        <v>0.0222364338125409</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01891399049451522</v>
+        <v>0.01931355007221223</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01804318095265493</v>
+        <v>0.01629034094575027</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01636232141212945</v>
+        <v>0.01676232380690036</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01986780542932061</v>
+        <v>0.01937599510298835</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02235400903972615</v>
+        <v>0.02343326998785087</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02030769828826095</v>
+        <v>0.02076907462390139</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0250566348244359</v>
+        <v>0.02466693463729768</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02443670323987163</v>
+        <v>0.02398336319405136</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05238915510278112</v>
+        <v>0.05197457464054049</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05963914302170385</v>
+        <v>0.05767781831918398</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06352644277586188</v>
+        <v>0.0628394332624623</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05265610508048635</v>
+        <v>0.0539975001243681</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06205157706098779</v>
+        <v>0.0624105554109751</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06033712900051495</v>
+        <v>0.06135816862878196</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05251498804725879</v>
+        <v>0.05619202233349625</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04886880967964913</v>
+        <v>0.04733228879355026</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04859418431391808</v>
+        <v>0.05065862468547788</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04861010626984565</v>
+        <v>0.05047326330992739</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05206606186513586</v>
+        <v>0.05196226548179108</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04481607900378514</v>
+        <v>0.04405453109490461</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005124894383947695</v>
+        <v>0.00513408281317461</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01813451581455741</v>
+        <v>0.02012716806003082</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01443041729813431</v>
+        <v>0.01462617150619194</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01756044313625397</v>
+        <v>0.01723786377289626</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02350891868375954</v>
+        <v>0.02373479923552281</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03297780294854299</v>
+        <v>0.03278288393787072</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02335941035896687</v>
+        <v>0.0232788919095427</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04417573569530093</v>
+        <v>0.0465253126975145</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01708559382989104</v>
+        <v>0.01674413230270178</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02992076199972575</v>
+        <v>0.03073472097373472</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02139582626616888</v>
+        <v>0.02209160673681393</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03397762698462418</v>
+        <v>0.03395023654731479</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03425706719723899</v>
+        <v>0.03538811286127592</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0645266931530767</v>
+        <v>0.0659318100742613</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0537605931359759</v>
+        <v>0.05117604501088008</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04784760231016604</v>
+        <v>0.04969103893658898</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06331958076889364</v>
+        <v>0.06279289462672012</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08473997008468748</v>
+        <v>0.08083083040534514</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07182696322141807</v>
+        <v>0.06688122026510196</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08523276421923021</v>
+        <v>0.08809906880624535</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04177400694518995</v>
+        <v>0.04146658503875127</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06322764795634397</v>
+        <v>0.06363320465668297</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0504572360437787</v>
+        <v>0.05271871907135203</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05909397585839059</v>
+        <v>0.05965334586090668</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02888623647766115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.059043013817547</v>
+        <v>0.05904301381754699</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.04696644211353611</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01527482417867248</v>
+        <v>0.01521025475684525</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03073526396513397</v>
+        <v>0.03121688268869963</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01696310386412092</v>
+        <v>0.01550751760134583</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03965457634973975</v>
+        <v>0.04053056280409389</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01815019780511645</v>
+        <v>0.02310005836468185</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06343266760927257</v>
+        <v>0.06345148518820058</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04975007543337322</v>
+        <v>0.05115649220810655</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0698910770521719</v>
+        <v>0.06943900139737796</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02072573893735647</v>
+        <v>0.01929148208002643</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04663885906322839</v>
+        <v>0.04620378335922723</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03020447524093525</v>
+        <v>0.0298697480707971</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05536340234457696</v>
+        <v>0.05475624346580216</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0427084716721625</v>
+        <v>0.04297360642878326</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07194232041539879</v>
+        <v>0.06875767157994321</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04643208442475273</v>
+        <v>0.0445012607528369</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08312716665750577</v>
+        <v>0.08477121992759801</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08579743088739897</v>
+        <v>0.09163503486410758</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1393284801334798</v>
+        <v>0.1377490750856339</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1421532835490275</v>
+        <v>0.1426344291589133</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.145095278195871</v>
+        <v>0.1459535801547875</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04523452378867939</v>
+        <v>0.04470380860989464</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07912647720047569</v>
+        <v>0.08058447789462993</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06273893542397624</v>
+        <v>0.06162321356631379</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09213502189713124</v>
+        <v>0.09516416432210201</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.0766734705259437</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07815340317997241</v>
+        <v>0.07815340317997239</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.0354628560987138</v>
@@ -1105,7 +1105,7 @@
         <v>0.05364268854152665</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05850459897003009</v>
+        <v>0.0585045989700301</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01804598224400351</v>
+        <v>0.01800386040223956</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01999526653573625</v>
+        <v>0.02063281752542838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02670361129695704</v>
+        <v>0.02700347718357451</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03305185717301472</v>
+        <v>0.03358338017590336</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0375762600691486</v>
+        <v>0.03677669692641339</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04952102802693264</v>
+        <v>0.04986519439190475</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05931067712621616</v>
+        <v>0.05936190369579104</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06532704472034609</v>
+        <v>0.06401759613241055</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0279731012710041</v>
+        <v>0.02804551506070427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03633335410470252</v>
+        <v>0.03629692573449769</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04360707288711252</v>
+        <v>0.04420881797503225</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05056540244280996</v>
+        <v>0.05039100422605718</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03563313641770455</v>
+        <v>0.03614105764182617</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04301751211572546</v>
+        <v>0.04234135449241441</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05043229694622897</v>
+        <v>0.05140600987788539</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05605810494650287</v>
+        <v>0.05515650270541352</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07065149201497888</v>
+        <v>0.06925629547541989</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08811832699811151</v>
+        <v>0.08757870859077505</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09813023116416326</v>
+        <v>0.0962619188579005</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09549435122680343</v>
+        <v>0.09438326797840954</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04380561893913557</v>
+        <v>0.04446353323845843</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05604777723100036</v>
+        <v>0.05546952432251644</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06523001853336102</v>
+        <v>0.06473253352222985</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06830557598246847</v>
+        <v>0.06882135491052301</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.0824184329908038</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.08846192072480905</v>
+        <v>0.08846192072480902</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02349896130679414</v>
+        <v>0.02203154036963049</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01603923848796284</v>
+        <v>0.01546493470500937</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02864853828735168</v>
+        <v>0.02975159085549541</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03964491454090512</v>
+        <v>0.03957019535673134</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0482315354463355</v>
+        <v>0.05005099601379943</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06520582013607155</v>
+        <v>0.06444563602682259</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09126330593374787</v>
+        <v>0.09444665937272682</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09419982228499596</v>
+        <v>0.09344129427586736</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0436888574693187</v>
+        <v>0.04360486966479255</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04896052451410943</v>
+        <v>0.04970222859796397</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06825821756845613</v>
+        <v>0.0679886484285154</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07660521756485186</v>
+        <v>0.07664343599396009</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0686645376854715</v>
+        <v>0.06240130038296538</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04598228383182051</v>
+        <v>0.0443135672152898</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06106390854963226</v>
+        <v>0.06332774315470557</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07996692224901743</v>
+        <v>0.07996427115666635</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09348310667287063</v>
+        <v>0.09395071956336223</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1072768444192277</v>
+        <v>0.1065729595828876</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1402898635846573</v>
+        <v>0.1407567927508047</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1276073573248729</v>
+        <v>0.1276155067118186</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07644820877290148</v>
+        <v>0.07391022234583375</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07702603977928006</v>
+        <v>0.07654801416150595</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09661492241197323</v>
+        <v>0.100131055303816</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.101394503362914</v>
+        <v>0.1021756192174579</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.06182185979576271</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.08633530917361644</v>
+        <v>0.08633530917361641</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003306496157827393</v>
+        <v>0.005413295481289003</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003524680578483455</v>
+        <v>0.003551025578128125</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.006479427895633094</v>
+        <v>0.006794036373650918</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01087518251929283</v>
+        <v>0.01146826091742629</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04234054984674615</v>
+        <v>0.04377734437900437</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0602997216999718</v>
+        <v>0.05874657123131457</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05714798912336581</v>
+        <v>0.0583398369094436</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0859688712700379</v>
+        <v>0.08623778947156753</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03823792448173467</v>
+        <v>0.03702509772515437</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.05032891455392603</v>
+        <v>0.05104006652950689</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04833137274503529</v>
+        <v>0.05002829706112228</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.07317750761208468</v>
+        <v>0.07267386376466226</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03727388756161069</v>
+        <v>0.0373911207104838</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04670525894635102</v>
+        <v>0.04817524209819305</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04047519219972033</v>
+        <v>0.03977987540247271</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06165750757953345</v>
+        <v>0.06051589552076989</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06797045001511248</v>
+        <v>0.07063209006156483</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09101994089278032</v>
+        <v>0.0912054282623621</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.09113879894171135</v>
+        <v>0.09024160487728321</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1214543339949212</v>
+        <v>0.1212328850339253</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05893286969345691</v>
+        <v>0.05870601115377202</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.07693771880016866</v>
+        <v>0.07719092919302213</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.07668880792321921</v>
+        <v>0.07937618491128784</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1029686565471427</v>
+        <v>0.1031351455435058</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.03490093429973935</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.04349279256370053</v>
+        <v>0.04349279256370052</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.05300719667115261</v>
@@ -1501,7 +1501,7 @@
         <v>0.07629619269215275</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.08439401474631458</v>
+        <v>0.08439401474631456</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.03965774541479722</v>
@@ -1513,7 +1513,7 @@
         <v>0.05603503897850423</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.06449504642364437</v>
+        <v>0.06449504642364436</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02079359183166954</v>
+        <v>0.02095054412516855</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02624223208186747</v>
+        <v>0.02640314880291459</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02861123495981599</v>
+        <v>0.02947164166633348</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03736967766893463</v>
+        <v>0.03793472151572915</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0464571279317566</v>
+        <v>0.04627358766445881</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06265738770632308</v>
+        <v>0.06282507280207064</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06739088873386979</v>
+        <v>0.06696599026111544</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07662906945208998</v>
+        <v>0.07721856775722949</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03499917094734441</v>
+        <v>0.03487082259736093</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.04697917265224684</v>
+        <v>0.04696457097136147</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0508118598821278</v>
+        <v>0.05073222583280109</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05904303637415281</v>
+        <v>0.05986274205696376</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03161615856056517</v>
+        <v>0.03196934736103166</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03982588758619065</v>
+        <v>0.04019366993560167</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04129124641995916</v>
+        <v>0.04180807946910683</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05067226200732884</v>
+        <v>0.05104094026187352</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06139796448278879</v>
+        <v>0.0618391524191273</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0797732850041846</v>
+        <v>0.08076615125350492</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.08625122314215032</v>
+        <v>0.08570947913649672</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.09123396354511028</v>
+        <v>0.09239512931391686</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04457710745937224</v>
+        <v>0.04502671382216241</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05820477249510467</v>
+        <v>0.05838250020415935</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.06244803387070379</v>
+        <v>0.0622710902006223</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06982683358240936</v>
+        <v>0.06986873026720415</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8529</v>
+        <v>8254</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7640</v>
+        <v>7297</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10874</v>
+        <v>10407</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12203</v>
+        <v>12244</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5801</v>
+        <v>5923</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5674</v>
+        <v>5123</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5679</v>
+        <v>5817</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9704</v>
+        <v>9463</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17446</v>
+        <v>18289</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>15265</v>
+        <v>15611</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>19448</v>
+        <v>19145</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>25390</v>
+        <v>24919</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24821</v>
+        <v>24624</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26075</v>
+        <v>25217</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27259</v>
+        <v>26964</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>28993</v>
+        <v>29732</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19030</v>
+        <v>19140</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18973</v>
+        <v>19294</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18226</v>
+        <v>19502</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>23868</v>
+        <v>23118</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>37926</v>
+        <v>39537</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>36539</v>
+        <v>37939</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>40411</v>
+        <v>40330</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>46565</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7562</v>
+        <v>8393</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5444</v>
+        <v>5517</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>8485</v>
+        <v>8330</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8742</v>
+        <v>8826</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11058</v>
+        <v>10993</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8696</v>
+        <v>8666</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>18693</v>
+        <v>19687</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>12623</v>
+        <v>12371</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>22510</v>
+        <v>23123</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>16036</v>
+        <v>16558</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>30796</v>
+        <v>30771</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12570</v>
+        <v>12985</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26909</v>
+        <v>27495</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20280</v>
+        <v>19305</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>23121</v>
+        <v>24011</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>23546</v>
+        <v>23350</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>28415</v>
+        <v>27104</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>26739</v>
+        <v>24898</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>36066</v>
+        <v>37279</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>30863</v>
+        <v>30635</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>47568</v>
+        <v>47873</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>37818</v>
+        <v>39513</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>53560</v>
+        <v>54067</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8285</v>
+        <v>8250</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19312</v>
+        <v>19614</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8853</v>
+        <v>8094</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>18702</v>
+        <v>19115</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3045</v>
+        <v>3876</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>16435</v>
+        <v>16440</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8265</v>
+        <v>8498</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13057</v>
+        <v>12973</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>14719</v>
+        <v>13700</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>41388</v>
+        <v>41002</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>20782</v>
+        <v>20551</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>36453</v>
+        <v>36053</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23165</v>
+        <v>23308</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45203</v>
+        <v>43202</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24234</v>
+        <v>23226</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>39204</v>
+        <v>39979</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14395</v>
+        <v>15375</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>36098</v>
+        <v>35689</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23615</v>
+        <v>23695</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>27107</v>
+        <v>27267</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>32124</v>
+        <v>31747</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>70218</v>
+        <v>71512</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>43167</v>
+        <v>42399</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>60665</v>
+        <v>62659</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>22347</v>
+        <v>22295</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23141</v>
+        <v>23879</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>30699</v>
+        <v>31044</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>37410</v>
+        <v>38011</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>26840</v>
+        <v>26269</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>37915</v>
+        <v>38179</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>48983</v>
+        <v>49026</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>56200</v>
+        <v>55073</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>54621</v>
+        <v>54762</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>69868</v>
+        <v>69798</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>86146</v>
+        <v>87335</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>100733</v>
+        <v>100385</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>44126</v>
+        <v>44755</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>49785</v>
+        <v>49002</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>57979</v>
+        <v>59098</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>63449</v>
+        <v>62429</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>50465</v>
+        <v>49469</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>67467</v>
+        <v>67054</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>81043</v>
+        <v>79500</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>82152</v>
+        <v>81196</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>85536</v>
+        <v>86820</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>107778</v>
+        <v>106666</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>128863</v>
+        <v>127880</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>136073</v>
+        <v>137101</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8214</v>
+        <v>7701</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8190</v>
+        <v>7896</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>17782</v>
+        <v>18467</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>22458</v>
+        <v>22416</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>27432</v>
+        <v>28467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>49450</v>
+        <v>48874</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>67375</v>
+        <v>69725</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>78198</v>
+        <v>77568</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>40119</v>
+        <v>40042</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>62129</v>
+        <v>63070</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>92760</v>
+        <v>92393</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>106987</v>
+        <v>107041</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>24001</v>
+        <v>21812</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23478</v>
+        <v>22626</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>37903</v>
+        <v>39308</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>53169</v>
+        <v>53435</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>81355</v>
+        <v>80822</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>103568</v>
+        <v>103913</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>105930</v>
+        <v>105937</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>70202</v>
+        <v>67871</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>97743</v>
+        <v>97137</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>131295</v>
+        <v>136073</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>141608</v>
+        <v>142699</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>986</v>
+        <v>1614</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1861</v>
+        <v>1951</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2580</v>
+        <v>2721</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>52873</v>
+        <v>54667</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>66706</v>
+        <v>64988</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>61836</v>
+        <v>63125</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>72471</v>
+        <v>72698</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>59153</v>
+        <v>57276</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>69055</v>
+        <v>70031</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>66174</v>
+        <v>68497</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>79048</v>
+        <v>78504</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11115</v>
+        <v>11150</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12416</v>
+        <v>12807</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11622</v>
+        <v>11423</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>14627</v>
+        <v>14356</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>84879</v>
+        <v>88203</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>100690</v>
+        <v>100895</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>98614</v>
+        <v>97644</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>102385</v>
+        <v>102198</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>91167</v>
+        <v>90816</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>105565</v>
+        <v>105912</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>105000</v>
+        <v>108679</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>111229</v>
+        <v>111409</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>67978</v>
+        <v>68491</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>89652</v>
+        <v>90201</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>96870</v>
+        <v>99783</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>128589</v>
+        <v>130533</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>156938</v>
+        <v>156318</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>221751</v>
+        <v>222345</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>237997</v>
+        <v>236497</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>278300</v>
+        <v>280441</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>232650</v>
+        <v>231797</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>326760</v>
+        <v>326658</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>351482</v>
+        <v>350931</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>417598</v>
+        <v>423395</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>103359</v>
+        <v>104513</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>136058</v>
+        <v>137314</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>139801</v>
+        <v>141551</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>174363</v>
+        <v>175632</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>207410</v>
+        <v>208900</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>282326</v>
+        <v>285840</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>304604</v>
+        <v>302691</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>331341</v>
+        <v>335559</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>296317</v>
+        <v>299306</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>404839</v>
+        <v>406075</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>431973</v>
+        <v>430749</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>493869</v>
+        <v>494166</v>
       </c>
     </row>
     <row r="32">
